--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="339">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1032,13 +1032,10 @@
     <t>*Note: Closed and FieldComp not in the list of status change when WO is in Create status - this is the correct functionality but it's not the case in TST environment and it is in UAT</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1524,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,10 +1604,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="8" t="s">
         <v>337</v>
+      </c>
+      <c r="E4" t="s">
+        <v>338</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>321</v>
@@ -1633,9 +1630,7 @@
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>337</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5" s="13" t="s">
         <v>321</v>
       </c>
@@ -1677,9 +1672,6 @@
       <c r="D7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>337</v>
-      </c>
       <c r="F7" s="13" t="s">
         <v>321</v>
       </c>
@@ -1701,9 +1693,6 @@
       <c r="D8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
-        <v>337</v>
-      </c>
       <c r="F8" s="13" t="s">
         <v>321</v>
       </c>
@@ -1725,9 +1714,6 @@
       <c r="D9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>337</v>
-      </c>
       <c r="F9" s="13" t="s">
         <v>321</v>
       </c>
@@ -1770,9 +1756,6 @@
       <c r="D11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
-        <v>337</v>
-      </c>
       <c r="F11" s="13" t="s">
         <v>321</v>
       </c>
@@ -1850,9 +1833,6 @@
       <c r="D15" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E15" t="s">
-        <v>337</v>
-      </c>
       <c r="F15" s="13" t="s">
         <v>321</v>
       </c>
@@ -1932,9 +1912,6 @@
       <c r="D19" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
-        <v>337</v>
-      </c>
       <c r="F19" s="13" t="s">
         <v>321</v>
       </c>
@@ -1956,9 +1933,6 @@
       <c r="D20" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
-        <v>337</v>
-      </c>
       <c r="F20" s="13" t="s">
         <v>321</v>
       </c>
@@ -1980,9 +1954,6 @@
       <c r="D21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E21" t="s">
-        <v>337</v>
-      </c>
       <c r="F21" s="13" t="s">
         <v>321</v>
       </c>
@@ -2002,9 +1973,6 @@
       <c r="D22" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
-        <v>337</v>
-      </c>
       <c r="F22" s="13" t="s">
         <v>321</v>
       </c>
@@ -2025,9 +1993,6 @@
       </c>
       <c r="D23" s="24" t="s">
         <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>337</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>321</v>
@@ -2070,9 +2035,6 @@
       <c r="D25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E25" t="s">
-        <v>337</v>
-      </c>
       <c r="F25" s="13" t="s">
         <v>321</v>
       </c>
@@ -2116,9 +2078,6 @@
       <c r="D27" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E27" t="s">
-        <v>337</v>
-      </c>
       <c r="F27" s="13" t="s">
         <v>321</v>
       </c>
@@ -2140,9 +2099,6 @@
       <c r="D28" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E28" t="s">
-        <v>337</v>
-      </c>
       <c r="F28" s="13" t="s">
         <v>321</v>
       </c>
@@ -2186,9 +2142,6 @@
       <c r="D30" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E30" t="s">
-        <v>337</v>
-      </c>
       <c r="F30" s="13" t="s">
         <v>321</v>
       </c>
@@ -2212,9 +2165,6 @@
       <c r="D31" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E31" t="s">
-        <v>337</v>
-      </c>
       <c r="F31" s="13" t="s">
         <v>321</v>
       </c>
@@ -2235,9 +2185,6 @@
       </c>
       <c r="D32" s="24" t="s">
         <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>337</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>321</v>
@@ -2400,9 +2347,6 @@
       <c r="D40" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E40" t="s">
-        <v>337</v>
-      </c>
       <c r="F40" s="13" t="s">
         <v>321</v>
       </c>
@@ -2421,10 +2365,7 @@
         <v>68</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="E41" t="s">
-        <v>338</v>
+        <v>5</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>321</v>
@@ -2447,9 +2388,6 @@
       <c r="D42" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E42" t="s">
-        <v>337</v>
-      </c>
       <c r="F42" s="13" t="s">
         <v>321</v>
       </c>
@@ -2470,9 +2408,6 @@
       <c r="D43" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E43" t="s">
-        <v>337</v>
-      </c>
       <c r="F43" s="13" t="s">
         <v>321</v>
       </c>
@@ -2493,9 +2428,6 @@
       <c r="D44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E44" t="s">
-        <v>337</v>
-      </c>
       <c r="F44" s="13" t="s">
         <v>321</v>
       </c>
@@ -2518,9 +2450,6 @@
       <c r="D45" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E45" t="s">
-        <v>337</v>
-      </c>
       <c r="F45" s="13" t="s">
         <v>321</v>
       </c>
@@ -2538,9 +2467,6 @@
       <c r="D46" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E46" t="s">
-        <v>337</v>
-      </c>
       <c r="F46" s="13" t="s">
         <v>321</v>
       </c>
@@ -2573,9 +2499,6 @@
       <c r="D48" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E48" t="s">
-        <v>337</v>
-      </c>
       <c r="F48" s="13" t="s">
         <v>321</v>
       </c>
@@ -2593,9 +2516,6 @@
       <c r="D49" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E49" t="s">
-        <v>337</v>
-      </c>
       <c r="F49" s="13" t="s">
         <v>321</v>
       </c>
@@ -2633,9 +2553,6 @@
       <c r="D51" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E51" t="s">
-        <v>337</v>
-      </c>
       <c r="F51" s="13" t="s">
         <v>321</v>
       </c>
@@ -2651,9 +2568,6 @@
       <c r="D52" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E52" t="s">
-        <v>337</v>
-      </c>
       <c r="F52" s="13" t="s">
         <v>321</v>
       </c>
@@ -2669,9 +2583,6 @@
       <c r="D53" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E53" t="s">
-        <v>337</v>
-      </c>
       <c r="F53" s="13" t="s">
         <v>321</v>
       </c>
@@ -2687,9 +2598,6 @@
       <c r="D54" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E54" t="s">
-        <v>337</v>
-      </c>
       <c r="F54" s="13" t="s">
         <v>321</v>
       </c>
@@ -2705,9 +2613,6 @@
       <c r="D55" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E55" t="s">
-        <v>337</v>
-      </c>
       <c r="F55" s="13" t="s">
         <v>321</v>
       </c>
@@ -2723,9 +2628,6 @@
       <c r="D56" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E56" t="s">
-        <v>337</v>
-      </c>
       <c r="F56" s="13" t="s">
         <v>321</v>
       </c>
@@ -2743,9 +2645,6 @@
       <c r="D57" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E57" t="s">
-        <v>337</v>
-      </c>
       <c r="F57" s="13" t="s">
         <v>321</v>
       </c>
@@ -2764,9 +2663,6 @@
       <c r="D58" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E58" t="s">
-        <v>337</v>
-      </c>
       <c r="F58" s="13" t="s">
         <v>321</v>
       </c>
@@ -2784,9 +2680,6 @@
       <c r="D59" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E59" t="s">
-        <v>337</v>
-      </c>
       <c r="F59" s="13" t="s">
         <v>321</v>
       </c>
@@ -2804,9 +2697,6 @@
       <c r="D60" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E60" t="s">
-        <v>337</v>
-      </c>
       <c r="F60" s="13" t="s">
         <v>321</v>
       </c>
@@ -2824,9 +2714,6 @@
       <c r="D61" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E61" t="s">
-        <v>337</v>
-      </c>
       <c r="F61" s="13" t="s">
         <v>321</v>
       </c>
@@ -2847,9 +2734,6 @@
       <c r="D62" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E62" t="s">
-        <v>337</v>
-      </c>
       <c r="F62" s="13" t="s">
         <v>321</v>
       </c>
@@ -2868,9 +2752,6 @@
       <c r="D63" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E63" t="s">
-        <v>337</v>
-      </c>
       <c r="F63" s="13" t="s">
         <v>321</v>
       </c>
@@ -2889,9 +2770,6 @@
       <c r="D64" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E64" t="s">
-        <v>337</v>
-      </c>
       <c r="F64" s="13" t="s">
         <v>321</v>
       </c>
@@ -2910,9 +2788,6 @@
       <c r="D65" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E65" t="s">
-        <v>337</v>
-      </c>
       <c r="F65" s="13" t="s">
         <v>321</v>
       </c>
@@ -2963,9 +2838,6 @@
       <c r="D68" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E68" t="s">
-        <v>337</v>
-      </c>
       <c r="F68" s="13" t="s">
         <v>321</v>
       </c>
@@ -2983,9 +2855,6 @@
       <c r="D69" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E69" t="s">
-        <v>337</v>
-      </c>
       <c r="F69" s="13" t="s">
         <v>321</v>
       </c>
@@ -3003,9 +2872,6 @@
       <c r="D70" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E70" t="s">
-        <v>337</v>
-      </c>
       <c r="F70" s="13" t="s">
         <v>321</v>
       </c>
@@ -3026,9 +2892,6 @@
       <c r="D71" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E71" t="s">
-        <v>337</v>
-      </c>
       <c r="F71" s="13" t="s">
         <v>321</v>
       </c>
@@ -3046,9 +2909,6 @@
       <c r="D72" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E72" t="s">
-        <v>337</v>
-      </c>
       <c r="F72" s="13" t="s">
         <v>321</v>
       </c>
@@ -3756,9 +3616,6 @@
       <c r="D113" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E113" t="s">
-        <v>337</v>
-      </c>
       <c r="F113" s="13" t="s">
         <v>321</v>
       </c>
@@ -3810,9 +3667,6 @@
       <c r="D116" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E116" t="s">
-        <v>337</v>
-      </c>
       <c r="F116" s="13" t="s">
         <v>321</v>
       </c>
@@ -3828,9 +3682,6 @@
       <c r="D117" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E117" t="s">
-        <v>337</v>
-      </c>
       <c r="F117" s="13" t="s">
         <v>321</v>
       </c>
@@ -3848,9 +3699,6 @@
       <c r="D118" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E118" t="s">
-        <v>337</v>
-      </c>
       <c r="F118" s="13" t="s">
         <v>321</v>
       </c>
@@ -3868,9 +3716,6 @@
       <c r="D119" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E119" t="s">
-        <v>337</v>
-      </c>
       <c r="F119" s="13" t="s">
         <v>321</v>
       </c>
@@ -3888,9 +3733,6 @@
       <c r="D120" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E120" t="s">
-        <v>337</v>
-      </c>
       <c r="F120" s="13" t="s">
         <v>321</v>
       </c>
@@ -3906,9 +3748,6 @@
       <c r="D121" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E121" t="s">
-        <v>337</v>
-      </c>
       <c r="F121" s="13" t="s">
         <v>321</v>
       </c>
@@ -3926,9 +3765,6 @@
       <c r="D122" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E122" t="s">
-        <v>337</v>
-      </c>
       <c r="F122" s="13" t="s">
         <v>321</v>
       </c>
@@ -3946,9 +3782,6 @@
       <c r="D123" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E123" t="s">
-        <v>337</v>
-      </c>
       <c r="F123" s="13" t="s">
         <v>321</v>
       </c>
@@ -3966,9 +3799,6 @@
       <c r="D124" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E124" t="s">
-        <v>337</v>
-      </c>
       <c r="F124" s="13" t="s">
         <v>321</v>
       </c>
@@ -3986,9 +3816,6 @@
       <c r="D125" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E125" t="s">
-        <v>338</v>
-      </c>
       <c r="F125" s="13" t="s">
         <v>321</v>
       </c>
@@ -4006,9 +3833,6 @@
       <c r="D126" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E126" t="s">
-        <v>337</v>
-      </c>
       <c r="F126" s="13" t="s">
         <v>321</v>
       </c>
@@ -4026,9 +3850,6 @@
       <c r="D127" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E127" t="s">
-        <v>338</v>
-      </c>
       <c r="F127" s="13" t="s">
         <v>321</v>
       </c>
@@ -4049,9 +3870,6 @@
       <c r="D128" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E128" t="s">
-        <v>337</v>
-      </c>
       <c r="F128" s="13" t="s">
         <v>321</v>
       </c>
@@ -4139,9 +3957,6 @@
       <c r="D133" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E133" t="s">
-        <v>337</v>
-      </c>
       <c r="F133" s="13" t="s">
         <v>321</v>
       </c>
@@ -4158,9 +3973,6 @@
       </c>
       <c r="D134" s="24" t="s">
         <v>5</v>
-      </c>
-      <c r="E134" t="s">
-        <v>337</v>
       </c>
       <c r="F134" s="13" t="s">
         <v>321</v>

--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="340">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1036,6 +1036,9 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="8220" windowWidth="13080" xWindow="480" yWindow="330"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="13080" windowHeight="8220"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Test Cases'!$A$1:$E$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$E$141</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="339">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1036,16 +1036,12 @@
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1091,7 +1087,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1160,73 +1156,87 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1240,10 +1250,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1401,7 +1411,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1410,13 +1420,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1426,7 +1436,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1435,7 +1445,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1444,7 +1454,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1454,12 +1464,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1490,7 +1500,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1509,7 +1519,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1521,22 +1531,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="46.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="50.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="81.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="81.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1631,7 +1641,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>5</v>
+        <v>337</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="13" t="s">
@@ -1650,7 +1660,7 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="8"/>
@@ -1672,7 +1682,7 @@
       <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -1693,7 +1703,7 @@
       <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="13" t="s">
@@ -1714,7 +1724,7 @@
       <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
@@ -1735,7 +1745,7 @@
       <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="13"/>
@@ -1756,7 +1766,7 @@
       <c r="C11" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -1775,7 +1785,7 @@
         <v>278</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="8"/>
@@ -1793,7 +1803,7 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="8"/>
@@ -1811,7 +1821,7 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="8"/>
@@ -1833,7 +1843,7 @@
       <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -1852,7 +1862,7 @@
       <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="8"/>
@@ -1872,7 +1882,7 @@
       <c r="C17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="8"/>
@@ -1892,7 +1902,7 @@
       <c r="C18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="8"/>
@@ -1912,7 +1922,7 @@
       <c r="C19" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="13" t="s">
@@ -1933,7 +1943,7 @@
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="13" t="s">
@@ -1954,7 +1964,7 @@
       <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
@@ -1973,7 +1983,7 @@
       <c r="C22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="13" t="s">
@@ -1994,7 +2004,7 @@
       <c r="C23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="13" t="s">
@@ -2017,7 +2027,7 @@
       <c r="C24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="8"/>
@@ -2035,7 +2045,7 @@
       <c r="C25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="13" t="s">
@@ -2058,7 +2068,7 @@
       <c r="C26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="8"/>
@@ -2078,7 +2088,7 @@
       <c r="C27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -2099,7 +2109,7 @@
       <c r="C28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="13" t="s">
@@ -2118,7 +2128,7 @@
       <c r="C29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="8"/>
@@ -2142,7 +2152,7 @@
       <c r="C30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -2165,7 +2175,7 @@
       <c r="C31" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="13" t="s">
@@ -2186,7 +2196,7 @@
       <c r="C32" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="13" t="s">
@@ -2207,7 +2217,7 @@
       <c r="C33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="8"/>
@@ -2225,7 +2235,7 @@
       <c r="C34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="8"/>
@@ -2245,7 +2255,7 @@
       <c r="C35" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="8"/>
@@ -2265,7 +2275,7 @@
       <c r="C36" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="8"/>
@@ -2285,7 +2295,7 @@
       <c r="C37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="8"/>
@@ -2305,7 +2315,7 @@
       <c r="C38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="8"/>
@@ -2325,7 +2335,7 @@
       <c r="C39" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="8"/>
@@ -2347,7 +2357,7 @@
       <c r="C40" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="13" t="s">
@@ -2367,7 +2377,7 @@
       <c r="C41" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="13" t="s">
@@ -2388,7 +2398,7 @@
       <c r="C42" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -2408,7 +2418,7 @@
       <c r="C43" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="13" t="s">
@@ -2428,7 +2438,7 @@
       <c r="C44" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="13" t="s">
@@ -2450,7 +2460,7 @@
       <c r="C45" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -2467,7 +2477,7 @@
       <c r="C46" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F46" s="13" t="s">
@@ -2480,7 +2490,7 @@
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="8"/>
@@ -2499,7 +2509,7 @@
       <c r="C48" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -2516,7 +2526,7 @@
       <c r="C49" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="13" t="s">
@@ -2535,7 +2545,7 @@
       <c r="C50" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F50" s="13" t="s">
@@ -2553,7 +2563,7 @@
       <c r="C51" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F51" s="13" t="s">
@@ -2568,7 +2578,7 @@
       <c r="C52" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="13" t="s">
@@ -2583,7 +2593,7 @@
       <c r="C53" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F53" s="13" t="s">
@@ -2598,7 +2608,7 @@
       <c r="C54" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -2613,7 +2623,7 @@
       <c r="C55" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="13" t="s">
@@ -2628,7 +2638,7 @@
       <c r="C56" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F56" s="13" t="s">
@@ -2645,7 +2655,7 @@
       <c r="C57" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="13" t="s">
@@ -2663,7 +2673,7 @@
       <c r="C58" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F58" s="13" t="s">
@@ -2680,7 +2690,7 @@
       <c r="C59" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F59" s="13" t="s">
@@ -2697,7 +2707,7 @@
       <c r="C60" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F60" s="13" t="s">
@@ -2714,7 +2724,7 @@
       <c r="C61" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F61" s="13" t="s">
@@ -2734,7 +2744,7 @@
       <c r="C62" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F62" s="13" t="s">
@@ -2752,7 +2762,7 @@
       <c r="C63" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F63" s="13" t="s">
@@ -2770,7 +2780,7 @@
       <c r="C64" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F64" s="13" t="s">
@@ -2788,7 +2798,7 @@
       <c r="C65" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F65" s="13" t="s">
@@ -2806,7 +2816,7 @@
       <c r="C66" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="8"/>
@@ -2822,7 +2832,7 @@
       <c r="C67" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="8"/>
@@ -2838,7 +2848,7 @@
       <c r="C68" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F68" s="13" t="s">
@@ -2855,7 +2865,7 @@
       <c r="C69" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F69" s="13" t="s">
@@ -2872,7 +2882,7 @@
       <c r="C70" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F70" s="13" t="s">
@@ -2892,7 +2902,7 @@
       <c r="C71" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F71" s="13" t="s">
@@ -2909,7 +2919,7 @@
       <c r="C72" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="13" t="s">
@@ -2926,7 +2936,7 @@
       <c r="C73" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E73" s="8"/>
@@ -2945,7 +2955,7 @@
       <c r="C74" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E74" s="8"/>
@@ -2964,7 +2974,7 @@
       <c r="C75" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E75" s="8"/>
@@ -2983,7 +2993,7 @@
       <c r="C76" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E76" s="8"/>
@@ -3002,7 +3012,7 @@
       <c r="C77" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E77" s="8"/>
@@ -3021,7 +3031,7 @@
       <c r="C78" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E78" s="8"/>
@@ -3038,7 +3048,7 @@
       <c r="C79" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E79" s="8"/>
@@ -3055,7 +3065,7 @@
       <c r="C80" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E80" s="8"/>
@@ -3072,7 +3082,7 @@
       <c r="C81" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="8"/>
@@ -3089,7 +3099,7 @@
       <c r="C82" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E82" s="8"/>
@@ -3106,7 +3116,7 @@
       <c r="C83" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E83" s="8"/>
@@ -3123,7 +3133,7 @@
       <c r="C84" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E84" s="8"/>
@@ -3140,7 +3150,7 @@
       <c r="C85" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E85" s="8"/>
@@ -3157,7 +3167,7 @@
       <c r="C86" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D86" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="8"/>
@@ -3174,7 +3184,7 @@
       <c r="C87" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E87" s="8"/>
@@ -3191,7 +3201,7 @@
       <c r="C88" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E88" s="8"/>
@@ -3208,7 +3218,7 @@
       <c r="C89" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E89" s="8"/>
@@ -3225,7 +3235,7 @@
       <c r="C90" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E90" s="8"/>
@@ -3242,7 +3252,7 @@
       <c r="C91" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E91" s="8"/>
@@ -3259,7 +3269,7 @@
       <c r="C92" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D92" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E92" s="8"/>
@@ -3276,7 +3286,7 @@
       <c r="C93" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E93" s="8"/>
@@ -3293,7 +3303,7 @@
       <c r="C94" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D94" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E94" s="8"/>
@@ -3310,7 +3320,7 @@
       <c r="C95" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="D95" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E95" s="8"/>
@@ -3327,7 +3337,7 @@
       <c r="C96" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E96" s="8"/>
@@ -3344,7 +3354,7 @@
       <c r="C97" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E97" s="8"/>
@@ -3361,7 +3371,7 @@
       <c r="C98" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E98" s="8"/>
@@ -3378,7 +3388,7 @@
       <c r="C99" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E99" s="8"/>
@@ -3395,7 +3405,7 @@
       <c r="C100" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D100" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E100" s="8"/>
@@ -3412,7 +3422,7 @@
       <c r="C101" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E101" s="8"/>
@@ -3429,7 +3439,7 @@
       <c r="C102" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="D102" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E102" s="8"/>
@@ -3446,7 +3456,7 @@
       <c r="C103" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E103" s="8"/>
@@ -3461,7 +3471,7 @@
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="24" t="s">
+      <c r="D104" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E104" s="8"/>
@@ -3478,7 +3488,7 @@
       <c r="C105" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D105" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E105" s="8"/>
@@ -3495,7 +3505,7 @@
       <c r="C106" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D106" s="24" t="s">
+      <c r="D106" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E106" s="8"/>
@@ -3512,7 +3522,7 @@
       <c r="C107" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E107" s="8"/>
@@ -3529,7 +3539,7 @@
       <c r="C108" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D108" s="24" t="s">
+      <c r="D108" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E108" s="8"/>
@@ -3546,7 +3556,7 @@
       <c r="C109" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="D109" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E109" s="8"/>
@@ -3563,7 +3573,7 @@
       <c r="C110" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D110" s="24" t="s">
+      <c r="D110" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E110" s="8"/>
@@ -3580,7 +3590,7 @@
       <c r="C111" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D111" s="24" t="s">
+      <c r="D111" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E111" s="8"/>
@@ -3597,7 +3607,7 @@
       <c r="C112" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="D112" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E112" s="8"/>
@@ -3616,7 +3626,7 @@
       <c r="C113" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F113" s="13" t="s">
@@ -3631,7 +3641,7 @@
       <c r="C114" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D114" s="24" t="s">
+      <c r="D114" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E114" s="8"/>
@@ -3648,7 +3658,7 @@
       <c r="C115" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D115" s="24" t="s">
+      <c r="D115" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E115" s="8"/>
@@ -3667,7 +3677,7 @@
       <c r="C116" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D116" s="24" t="s">
+      <c r="D116" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F116" s="13" t="s">
@@ -3682,7 +3692,7 @@
       <c r="C117" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D117" s="24" t="s">
+      <c r="D117" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F117" s="13" t="s">
@@ -3699,7 +3709,7 @@
       <c r="C118" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D118" s="24" t="s">
+      <c r="D118" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F118" s="13" t="s">
@@ -3716,7 +3726,7 @@
       <c r="C119" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D119" s="24" t="s">
+      <c r="D119" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F119" s="13" t="s">
@@ -3733,7 +3743,7 @@
       <c r="C120" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D120" s="24" t="s">
+      <c r="D120" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F120" s="13" t="s">
@@ -3748,7 +3758,7 @@
       <c r="C121" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D121" s="24" t="s">
+      <c r="D121" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F121" s="13" t="s">
@@ -3765,7 +3775,7 @@
       <c r="C122" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D122" s="24" t="s">
+      <c r="D122" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F122" s="13" t="s">
@@ -3782,7 +3792,7 @@
       <c r="C123" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D123" s="24" t="s">
+      <c r="D123" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F123" s="13" t="s">
@@ -3799,7 +3809,7 @@
       <c r="C124" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D124" s="24" t="s">
+      <c r="D124" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F124" s="13" t="s">
@@ -3816,7 +3826,7 @@
       <c r="C125" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D125" s="24" t="s">
+      <c r="D125" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F125" s="13" t="s">
@@ -3833,7 +3843,7 @@
       <c r="C126" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="D126" s="24" t="s">
+      <c r="D126" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F126" s="13" t="s">
@@ -3850,7 +3860,7 @@
       <c r="C127" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="D127" s="24" t="s">
+      <c r="D127" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F127" s="13" t="s">
@@ -3870,7 +3880,7 @@
       <c r="C128" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D128" s="24" t="s">
+      <c r="D128" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F128" s="13" t="s">
@@ -3885,7 +3895,7 @@
       <c r="C129" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D129" s="24" t="s">
+      <c r="D129" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E129" s="8"/>
@@ -3902,7 +3912,7 @@
       <c r="C130" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D130" s="24" t="s">
+      <c r="D130" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E130" s="8"/>
@@ -3919,7 +3929,7 @@
       <c r="C131" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D131" s="24" t="s">
+      <c r="D131" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E131" s="8"/>
@@ -3938,7 +3948,7 @@
       <c r="C132" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D132" s="24" t="s">
+      <c r="D132" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E132" s="8"/>
@@ -3957,7 +3967,7 @@
       <c r="C133" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D133" s="24" t="s">
+      <c r="D133" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F133" s="13" t="s">
@@ -3974,7 +3984,7 @@
       <c r="C134" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D134" s="24" t="s">
+      <c r="D134" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F134" s="13" t="s">
@@ -3987,7 +3997,7 @@
       </c>
       <c r="B135" s="14"/>
       <c r="C135" s="8"/>
-      <c r="D135" s="24" t="s">
+      <c r="D135" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E135" s="8"/>
@@ -3999,7 +4009,7 @@
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
-      <c r="D136" s="24" t="s">
+      <c r="D136" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E136" s="8"/>
@@ -4013,7 +4023,7 @@
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
-      <c r="D137" s="24" t="s">
+      <c r="D137" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E137" s="8"/>
@@ -4027,7 +4037,7 @@
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
-      <c r="D138" s="24" t="s">
+      <c r="D138" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E138" s="8"/>
@@ -4041,7 +4051,7 @@
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
-      <c r="D139" s="24" t="s">
+      <c r="D139" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E139" s="8"/>
@@ -4055,7 +4065,7 @@
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
-      <c r="D140" s="24" t="s">
+      <c r="D140" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E140" s="8"/>
@@ -4069,7 +4079,7 @@
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
-      <c r="D141" s="24" t="s">
+      <c r="D141" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E141" s="8"/>
@@ -4087,92 +4097,92 @@
   </sheetData>
   <autoFilter ref="A1:E141"/>
   <hyperlinks>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=182" r:id="rId1" ref="B4"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=187" r:id="rId2" ref="B5"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=183" r:id="rId3" ref="B7"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=184" r:id="rId4" ref="B8"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=185" r:id="rId5" ref="B9"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=186" r:id="rId6" ref="B11"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=186" r:id="rId7" ref="B10"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=189" r:id="rId8" ref="B15"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=196" r:id="rId9" ref="B27"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=197" r:id="rId10" ref="B28"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=200" r:id="rId11" ref="B30"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=201" r:id="rId12" ref="B31"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=198" r:id="rId13" ref="B23"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=188" r:id="rId14" ref="B46"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=235" r:id="rId15" ref="B49"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=234" r:id="rId16" ref="B48"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=194" r:id="rId17" ref="B40"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=191" r:id="rId18" ref="B41"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=192" r:id="rId19" ref="B42"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=195" r:id="rId20" ref="B43"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=190" r:id="rId21" ref="B44"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=193" r:id="rId22" ref="B45"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=214" r:id="rId23" ref="B57"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=215" r:id="rId24" ref="B58"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=216" r:id="rId25" ref="B59"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=217" r:id="rId26" ref="B60"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=212" r:id="rId27" ref="B61"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=213" r:id="rId28" ref="B62"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=210" r:id="rId29" ref="B63"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=211" r:id="rId30" ref="B64"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=211" r:id="rId31" ref="B65"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=222" r:id="rId32" ref="B72"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=223" r:id="rId33" ref="B73"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=224" r:id="rId34" ref="B74"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=219" r:id="rId35" ref="B75"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=220" r:id="rId36" ref="B76"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=218" r:id="rId37" ref="B77"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=221" r:id="rId38" ref="B78"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=227" r:id="rId39" ref="B113"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=209" r:id="rId40" ref="B124"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=207" r:id="rId41" ref="B122"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=203" r:id="rId42" ref="B118"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=202" r:id="rId43" ref="B116"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=204" r:id="rId44" ref="B119"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=205" r:id="rId45" ref="B120"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=208" r:id="rId46" ref="B123"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=232" r:id="rId47" ref="B20"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=233" r:id="rId48" ref="B21"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2076" r:id="rId49" ref="B68"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2077" r:id="rId50" ref="B69"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2014" r:id="rId51" ref="B70"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2011" r:id="rId52" ref="B71"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3683" r:id="rId53" ref="B12"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3676" r:id="rId54" ref="B126"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3669" r:id="rId55" ref="B125"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4812" r:id="rId56" ref="B127"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2721" r:id="rId57" ref="B128"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2250" r:id="rId58" ref="B134"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4686" r:id="rId59" ref="B133"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4820" r:id="rId60" ref="B132"/>
+    <hyperlink ref="B4" r:id="rId1" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=182"/>
+    <hyperlink ref="B5" r:id="rId2" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=187"/>
+    <hyperlink ref="B7" r:id="rId3" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=183"/>
+    <hyperlink ref="B8" r:id="rId4" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=184"/>
+    <hyperlink ref="B9" r:id="rId5" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=185"/>
+    <hyperlink ref="B11" r:id="rId6" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=186"/>
+    <hyperlink ref="B10" r:id="rId7" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=186"/>
+    <hyperlink ref="B15" r:id="rId8" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=189"/>
+    <hyperlink ref="B27" r:id="rId9" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=196"/>
+    <hyperlink ref="B28" r:id="rId10" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=197"/>
+    <hyperlink ref="B30" r:id="rId11" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=200"/>
+    <hyperlink ref="B31" r:id="rId12" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=201"/>
+    <hyperlink ref="B23" r:id="rId13" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=198"/>
+    <hyperlink ref="B46" r:id="rId14" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=188"/>
+    <hyperlink ref="B49" r:id="rId15" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=235"/>
+    <hyperlink ref="B48" r:id="rId16" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=234"/>
+    <hyperlink ref="B40" r:id="rId17" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=194"/>
+    <hyperlink ref="B41" r:id="rId18" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=191"/>
+    <hyperlink ref="B42" r:id="rId19" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=192"/>
+    <hyperlink ref="B43" r:id="rId20" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=195"/>
+    <hyperlink ref="B44" r:id="rId21" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=190"/>
+    <hyperlink ref="B45" r:id="rId22" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=193"/>
+    <hyperlink ref="B57" r:id="rId23" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=214"/>
+    <hyperlink ref="B58" r:id="rId24" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=215"/>
+    <hyperlink ref="B59" r:id="rId25" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=216"/>
+    <hyperlink ref="B60" r:id="rId26" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=217"/>
+    <hyperlink ref="B61" r:id="rId27" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=212"/>
+    <hyperlink ref="B62" r:id="rId28" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=213"/>
+    <hyperlink ref="B63" r:id="rId29" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=210"/>
+    <hyperlink ref="B64" r:id="rId30" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=211"/>
+    <hyperlink ref="B65" r:id="rId31" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=211"/>
+    <hyperlink ref="B72" r:id="rId32" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=222"/>
+    <hyperlink ref="B73" r:id="rId33" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=223"/>
+    <hyperlink ref="B74" r:id="rId34" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=224"/>
+    <hyperlink ref="B75" r:id="rId35" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=219"/>
+    <hyperlink ref="B76" r:id="rId36" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=220"/>
+    <hyperlink ref="B77" r:id="rId37" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=218"/>
+    <hyperlink ref="B78" r:id="rId38" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=221"/>
+    <hyperlink ref="B113" r:id="rId39" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=227"/>
+    <hyperlink ref="B124" r:id="rId40" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=209"/>
+    <hyperlink ref="B122" r:id="rId41" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=207"/>
+    <hyperlink ref="B118" r:id="rId42" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=203"/>
+    <hyperlink ref="B116" r:id="rId43" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=202"/>
+    <hyperlink ref="B119" r:id="rId44" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=204"/>
+    <hyperlink ref="B120" r:id="rId45" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=205"/>
+    <hyperlink ref="B123" r:id="rId46" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=208"/>
+    <hyperlink ref="B20" r:id="rId47" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=232"/>
+    <hyperlink ref="B21" r:id="rId48" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=233"/>
+    <hyperlink ref="B68" r:id="rId49" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2076"/>
+    <hyperlink ref="B69" r:id="rId50" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2077"/>
+    <hyperlink ref="B70" r:id="rId51" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2014"/>
+    <hyperlink ref="B71" r:id="rId52" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2011"/>
+    <hyperlink ref="B12" r:id="rId53" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3683"/>
+    <hyperlink ref="B126" r:id="rId54" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3676"/>
+    <hyperlink ref="B125" r:id="rId55" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3669"/>
+    <hyperlink ref="B127" r:id="rId56" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4812"/>
+    <hyperlink ref="B128" r:id="rId57" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2721"/>
+    <hyperlink ref="B134" r:id="rId58" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2250"/>
+    <hyperlink ref="B133" r:id="rId59" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4686"/>
+    <hyperlink ref="B132" r:id="rId60" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4820"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId61"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="13080" windowHeight="8220"/>
+    <workbookView windowHeight="8220" windowWidth="13080" xWindow="480" yWindow="330"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Cases" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$E$141</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Test Cases'!$A$1:$E$141</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="340">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1036,12 +1036,16 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1158,54 +1162,54 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1231,10 +1235,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1250,10 +1254,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1411,7 +1415,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1420,13 +1424,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1436,7 +1440,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1445,7 +1449,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1454,7 +1458,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1464,12 +1468,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1500,7 +1504,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1519,7 +1523,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1531,22 +1535,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="50.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="81.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="46.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="50.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="81.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1597,9 +1601,11 @@
       <c r="B3" s="14"/>
       <c r="C3" s="8"/>
       <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>337</v>
+      </c>
+      <c r="E3" t="s">
+        <v>338</v>
+      </c>
       <c r="F3" s="13"/>
       <c r="G3" s="12"/>
       <c r="H3" s="5"/>
@@ -1617,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>337</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>338</v>
@@ -1641,9 +1647,11 @@
         <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>338</v>
+      </c>
       <c r="F5" s="13" t="s">
         <v>321</v>
       </c>
@@ -1663,7 +1671,9 @@
       <c r="D6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" t="s">
+        <v>339</v>
+      </c>
       <c r="F6" s="13" t="s">
         <v>321</v>
       </c>
@@ -1685,6 +1695,9 @@
       <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="E7" t="s">
+        <v>338</v>
+      </c>
       <c r="F7" s="13" t="s">
         <v>321</v>
       </c>
@@ -1706,6 +1719,9 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="E8" t="s">
+        <v>338</v>
+      </c>
       <c r="F8" s="13" t="s">
         <v>321</v>
       </c>
@@ -1727,6 +1743,9 @@
       <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="E9" t="s">
+        <v>338</v>
+      </c>
       <c r="F9" s="13" t="s">
         <v>321</v>
       </c>
@@ -1768,6 +1787,9 @@
       </c>
       <c r="D11" s="11" t="s">
         <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>338</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>321</v>
@@ -4097,92 +4119,92 @@
   </sheetData>
   <autoFilter ref="A1:E141"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=182"/>
-    <hyperlink ref="B5" r:id="rId2" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=187"/>
-    <hyperlink ref="B7" r:id="rId3" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=183"/>
-    <hyperlink ref="B8" r:id="rId4" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=184"/>
-    <hyperlink ref="B9" r:id="rId5" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=185"/>
-    <hyperlink ref="B11" r:id="rId6" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=186"/>
-    <hyperlink ref="B10" r:id="rId7" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=186"/>
-    <hyperlink ref="B15" r:id="rId8" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=189"/>
-    <hyperlink ref="B27" r:id="rId9" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=196"/>
-    <hyperlink ref="B28" r:id="rId10" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=197"/>
-    <hyperlink ref="B30" r:id="rId11" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=200"/>
-    <hyperlink ref="B31" r:id="rId12" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=201"/>
-    <hyperlink ref="B23" r:id="rId13" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=198"/>
-    <hyperlink ref="B46" r:id="rId14" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=188"/>
-    <hyperlink ref="B49" r:id="rId15" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=235"/>
-    <hyperlink ref="B48" r:id="rId16" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=234"/>
-    <hyperlink ref="B40" r:id="rId17" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=194"/>
-    <hyperlink ref="B41" r:id="rId18" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=191"/>
-    <hyperlink ref="B42" r:id="rId19" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=192"/>
-    <hyperlink ref="B43" r:id="rId20" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=195"/>
-    <hyperlink ref="B44" r:id="rId21" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=190"/>
-    <hyperlink ref="B45" r:id="rId22" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=193"/>
-    <hyperlink ref="B57" r:id="rId23" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=214"/>
-    <hyperlink ref="B58" r:id="rId24" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=215"/>
-    <hyperlink ref="B59" r:id="rId25" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=216"/>
-    <hyperlink ref="B60" r:id="rId26" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=217"/>
-    <hyperlink ref="B61" r:id="rId27" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=212"/>
-    <hyperlink ref="B62" r:id="rId28" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=213"/>
-    <hyperlink ref="B63" r:id="rId29" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=210"/>
-    <hyperlink ref="B64" r:id="rId30" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=211"/>
-    <hyperlink ref="B65" r:id="rId31" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=211"/>
-    <hyperlink ref="B72" r:id="rId32" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=222"/>
-    <hyperlink ref="B73" r:id="rId33" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=223"/>
-    <hyperlink ref="B74" r:id="rId34" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=224"/>
-    <hyperlink ref="B75" r:id="rId35" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=219"/>
-    <hyperlink ref="B76" r:id="rId36" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=220"/>
-    <hyperlink ref="B77" r:id="rId37" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=218"/>
-    <hyperlink ref="B78" r:id="rId38" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=221"/>
-    <hyperlink ref="B113" r:id="rId39" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=227"/>
-    <hyperlink ref="B124" r:id="rId40" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=209"/>
-    <hyperlink ref="B122" r:id="rId41" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=207"/>
-    <hyperlink ref="B118" r:id="rId42" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=203"/>
-    <hyperlink ref="B116" r:id="rId43" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=202"/>
-    <hyperlink ref="B119" r:id="rId44" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=204"/>
-    <hyperlink ref="B120" r:id="rId45" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=205"/>
-    <hyperlink ref="B123" r:id="rId46" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=208"/>
-    <hyperlink ref="B20" r:id="rId47" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=232"/>
-    <hyperlink ref="B21" r:id="rId48" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=233"/>
-    <hyperlink ref="B68" r:id="rId49" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2076"/>
-    <hyperlink ref="B69" r:id="rId50" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2077"/>
-    <hyperlink ref="B70" r:id="rId51" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2014"/>
-    <hyperlink ref="B71" r:id="rId52" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2011"/>
-    <hyperlink ref="B12" r:id="rId53" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3683"/>
-    <hyperlink ref="B126" r:id="rId54" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3676"/>
-    <hyperlink ref="B125" r:id="rId55" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3669"/>
-    <hyperlink ref="B127" r:id="rId56" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4812"/>
-    <hyperlink ref="B128" r:id="rId57" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2721"/>
-    <hyperlink ref="B134" r:id="rId58" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2250"/>
-    <hyperlink ref="B133" r:id="rId59" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4686"/>
-    <hyperlink ref="B132" r:id="rId60" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4820"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=182" r:id="rId1" ref="B4"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=187" r:id="rId2" ref="B5"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=183" r:id="rId3" ref="B7"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=184" r:id="rId4" ref="B8"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=185" r:id="rId5" ref="B9"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=186" r:id="rId6" ref="B11"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=186" r:id="rId7" ref="B10"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=189" r:id="rId8" ref="B15"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=196" r:id="rId9" ref="B27"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=197" r:id="rId10" ref="B28"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=200" r:id="rId11" ref="B30"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=201" r:id="rId12" ref="B31"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=198" r:id="rId13" ref="B23"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=188" r:id="rId14" ref="B46"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=235" r:id="rId15" ref="B49"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=234" r:id="rId16" ref="B48"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=194" r:id="rId17" ref="B40"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=191" r:id="rId18" ref="B41"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=192" r:id="rId19" ref="B42"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=195" r:id="rId20" ref="B43"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=190" r:id="rId21" ref="B44"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=193" r:id="rId22" ref="B45"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=214" r:id="rId23" ref="B57"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=215" r:id="rId24" ref="B58"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=216" r:id="rId25" ref="B59"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=217" r:id="rId26" ref="B60"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=212" r:id="rId27" ref="B61"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=213" r:id="rId28" ref="B62"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=210" r:id="rId29" ref="B63"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=211" r:id="rId30" ref="B64"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=211" r:id="rId31" ref="B65"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=222" r:id="rId32" ref="B72"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=223" r:id="rId33" ref="B73"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=224" r:id="rId34" ref="B74"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=219" r:id="rId35" ref="B75"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=220" r:id="rId36" ref="B76"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=218" r:id="rId37" ref="B77"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=221" r:id="rId38" ref="B78"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=227" r:id="rId39" ref="B113"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=209" r:id="rId40" ref="B124"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=207" r:id="rId41" ref="B122"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=203" r:id="rId42" ref="B118"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=202" r:id="rId43" ref="B116"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=204" r:id="rId44" ref="B119"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=205" r:id="rId45" ref="B120"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=208" r:id="rId46" ref="B123"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=232" r:id="rId47" ref="B20"/>
+    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=233" r:id="rId48" ref="B21"/>
+    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2076" r:id="rId49" ref="B68"/>
+    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2077" r:id="rId50" ref="B69"/>
+    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2014" r:id="rId51" ref="B70"/>
+    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2011" r:id="rId52" ref="B71"/>
+    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3683" r:id="rId53" ref="B12"/>
+    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3676" r:id="rId54" ref="B126"/>
+    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3669" r:id="rId55" ref="B125"/>
+    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4812" r:id="rId56" ref="B127"/>
+    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2721" r:id="rId57" ref="B128"/>
+    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2250" r:id="rId58" ref="B134"/>
+    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4686" r:id="rId59" ref="B133"/>
+    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4820" r:id="rId60" ref="B132"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId61"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="340">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1604,7 +1604,7 @@
         <v>337</v>
       </c>
       <c r="E3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="12"/>

--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="8220" windowWidth="13080" xWindow="480" yWindow="330"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="13080" windowHeight="8220"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Test Cases'!$A$1:$E$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$E$140</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="338">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>011.02.1 SR As MXPLAN</t>
-  </si>
-  <si>
-    <t>Shakedown 3</t>
-  </si>
-  <si>
-    <t>011.03 WO As MXPLAN - to be removed</t>
   </si>
   <si>
     <t>Shakedown 4</t>
@@ -1045,7 +1039,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1162,54 +1155,54 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1235,10 +1228,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1254,10 +1247,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1415,7 +1408,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1424,13 +1417,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1440,7 +1433,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1449,7 +1442,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1458,7 +1451,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1468,12 +1461,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1504,7 +1497,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1523,7 +1516,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1535,22 +1528,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132:D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="46.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="50.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="81.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="81.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1558,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -1570,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="4"/>
@@ -1580,7 +1573,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="8"/>
@@ -1596,15 +1589,15 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="8"/>
       <c r="D3" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" t="s">
         <v>337</v>
-      </c>
-      <c r="E3" t="s">
-        <v>339</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="12"/>
@@ -1617,19 +1610,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="E4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="5"/>
@@ -1641,19 +1634,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="E5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
@@ -1664,18 +1657,20 @@
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="E6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
@@ -1687,19 +1682,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="E7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
@@ -1711,31 +1706,31 @@
         <v>13</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="E8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
@@ -1743,69 +1738,63 @@
       <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="2"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>220</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="2"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>212</v>
+      <c r="A11" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>213</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G11" s="13"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>314</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>278</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="8"/>
       <c r="D12" s="11" t="s">
         <v>5</v>
@@ -1813,17 +1802,17 @@
       <c r="E12" s="8"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="10"/>
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
         <v>5</v>
@@ -1831,47 +1820,49 @@
       <c r="E13" s="8"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="1"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>316</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="13"/>
       <c r="H14" s="6"/>
       <c r="I14" s="1"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>229</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G15" s="13"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>314</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="1"/>
       <c r="J15" s="6"/>
@@ -1890,7 +1881,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="1"/>
@@ -1910,7 +1901,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="1"/>
@@ -1918,41 +1909,42 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="8" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
-        <v>316</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G18" s="13"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>265</v>
+      </c>
       <c r="C19" s="8" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1960,19 +1952,19 @@
         <v>29</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="1"/>
       <c r="J20" s="6"/>
     </row>
@@ -1980,17 +1972,15 @@
       <c r="A21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>268</v>
-      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="8"/>
@@ -2001,17 +1991,21 @@
       <c r="A22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="C22" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G22" s="13"/>
+        <v>319</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>213</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="1"/>
       <c r="J22" s="6"/>
@@ -2020,8 +2014,8 @@
       <c r="A23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>234</v>
+      <c r="B23" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>36</v>
@@ -2029,12 +2023,9 @@
       <c r="D23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>215</v>
-      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="8"/>
       <c r="I23" s="1"/>
       <c r="J23" s="6"/>
@@ -2043,20 +2034,23 @@
       <c r="A24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>272</v>
-      </c>
+      <c r="B24" s="10"/>
       <c r="C24" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+        <v>335</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>213</v>
+      </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2070,51 +2064,49 @@
       <c r="D25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>215</v>
-      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J25" s="6"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="14" t="s">
+        <v>228</v>
+      </c>
       <c r="C26" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+        <v>335</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G26" s="17"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="5"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="8"/>
@@ -2125,19 +2117,20 @@
       <c r="A28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>231</v>
-      </c>
+      <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="E28" s="8"/>
       <c r="F28" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G28" s="17"/>
+        <v>318</v>
+      </c>
+      <c r="G28" t="s">
+        <v>314</v>
+      </c>
       <c r="H28" s="8"/>
       <c r="I28" s="1"/>
       <c r="J28" s="6"/>
@@ -2146,22 +2139,23 @@
       <c r="A29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="14" t="s">
+        <v>230</v>
+      </c>
       <c r="C29" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="8"/>
+        <v>335</v>
+      </c>
       <c r="F29" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="G29" t="s">
-        <v>316</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G29" s="17"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="23" t="s">
+        <v>329</v>
+      </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2169,73 +2163,68 @@
         <v>49</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="23" t="s">
-        <v>331</v>
-      </c>
+      <c r="I30" s="1"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>51</v>
+        <v>267</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>233</v>
+        <v>50</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>270</v>
+        <v>51</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G32" s="17"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="I32" s="1"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>290</v>
-      </c>
+      <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
         <v>53</v>
       </c>
@@ -2244,9 +2233,11 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="G33" t="s">
+        <v>314</v>
+      </c>
       <c r="H33" s="8"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="2"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2263,10 +2254,10 @@
       <c r="E34" s="8"/>
       <c r="F34" s="13"/>
       <c r="G34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H34" s="8"/>
-      <c r="I34" s="2"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2283,7 +2274,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="13"/>
       <c r="G35" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="1"/>
@@ -2303,9 +2294,9 @@
       <c r="E36" s="8"/>
       <c r="F36" s="13"/>
       <c r="G36" t="s">
-        <v>316</v>
-      </c>
-      <c r="H36" s="8"/>
+        <v>314</v>
+      </c>
+      <c r="H36" s="6"/>
       <c r="I36" s="1"/>
       <c r="J36" s="6"/>
     </row>
@@ -2315,7 +2306,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>5</v>
@@ -2323,7 +2314,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="13"/>
       <c r="G37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="1"/>
@@ -2331,11 +2322,11 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>5</v>
@@ -2343,7 +2334,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="13"/>
       <c r="G38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="1"/>
@@ -2353,17 +2344,17 @@
       <c r="A39" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="14" t="s">
+        <v>236</v>
+      </c>
       <c r="C39" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="13"/>
-      <c r="G39" t="s">
-        <v>316</v>
+        <v>335</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>319</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="1"/>
@@ -2374,17 +2365,18 @@
         <v>65</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>321</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G40" s="13"/>
       <c r="H40" s="6"/>
       <c r="I40" s="1"/>
       <c r="J40" s="6"/>
@@ -2394,39 +2386,38 @@
         <v>67</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="6"/>
+        <v>319</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G42" s="17"/>
+        <v>319</v>
+      </c>
+      <c r="G42" s="21"/>
       <c r="H42" s="1"/>
       <c r="I42" s="6"/>
     </row>
@@ -2435,19 +2426,21 @@
         <v>71</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G43" s="21"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2455,388 +2448,382 @@
         <v>73</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I44" s="6"/>
+        <v>319</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>77</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>321</v>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="D47" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" t="s">
-        <v>316</v>
+        <v>335</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G48" s="17"/>
+      <c r="H48" s="23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="D49" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="23" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="G49" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G50" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B52" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="B52" s="18"/>
       <c r="C52" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B53" s="18"/>
+        <v>281</v>
+      </c>
+      <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>283</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B56" s="8"/>
+        <v>209</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>242</v>
+      </c>
       <c r="C56" s="8" t="s">
-        <v>288</v>
+        <v>97</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="D58" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="D59" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="D60" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B61" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="D61" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G61" s="17"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="14" t="s">
+      <c r="D62" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G62" s="17"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G62" s="17"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>250</v>
-      </c>
       <c r="C63" s="8" t="s">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G63" s="17"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>251</v>
+        <v>110</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G65" s="17"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="13"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>5</v>
@@ -2846,117 +2833,120 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>291</v>
+        <v>112</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="13"/>
+        <v>335</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
+      </c>
+      <c r="H69" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>116</v>
+        <v>331</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="H70" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>333</v>
+        <v>121</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>321</v>
+      <c r="E72" s="8"/>
+      <c r="F72" s="13"/>
+      <c r="G72" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>5</v>
@@ -2964,18 +2954,18 @@
       <c r="E73" s="8"/>
       <c r="F73" s="13"/>
       <c r="G73" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>5</v>
@@ -2983,18 +2973,18 @@
       <c r="E74" s="8"/>
       <c r="F74" s="13"/>
       <c r="G74" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>5</v>
@@ -3002,18 +2992,18 @@
       <c r="E75" s="8"/>
       <c r="F75" s="13"/>
       <c r="G75" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>5</v>
@@ -3021,18 +3011,18 @@
       <c r="E76" s="8"/>
       <c r="F76" s="13"/>
       <c r="G76" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>5</v>
@@ -3040,18 +3030,16 @@
       <c r="E77" s="8"/>
       <c r="F77" s="13"/>
       <c r="G77" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>258</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B78" s="8"/>
       <c r="C78" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>5</v>
@@ -3059,16 +3047,16 @@
       <c r="E78" s="8"/>
       <c r="F78" s="13"/>
       <c r="G78" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>5</v>
@@ -3076,16 +3064,16 @@
       <c r="E79" s="8"/>
       <c r="F79" s="13"/>
       <c r="G79" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>5</v>
@@ -3093,16 +3081,16 @@
       <c r="E80" s="8"/>
       <c r="F80" s="13"/>
       <c r="G80" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>5</v>
@@ -3110,16 +3098,16 @@
       <c r="E81" s="8"/>
       <c r="F81" s="13"/>
       <c r="G81" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>5</v>
@@ -3127,16 +3115,16 @@
       <c r="E82" s="8"/>
       <c r="F82" s="13"/>
       <c r="G82" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>5</v>
@@ -3144,16 +3132,16 @@
       <c r="E83" s="8"/>
       <c r="F83" s="13"/>
       <c r="G83" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>5</v>
@@ -3161,16 +3149,16 @@
       <c r="E84" s="8"/>
       <c r="F84" s="13"/>
       <c r="G84" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>5</v>
@@ -3178,16 +3166,16 @@
       <c r="E85" s="8"/>
       <c r="F85" s="13"/>
       <c r="G85" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>5</v>
@@ -3195,16 +3183,16 @@
       <c r="E86" s="8"/>
       <c r="F86" s="13"/>
       <c r="G86" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>5</v>
@@ -3212,16 +3200,16 @@
       <c r="E87" s="8"/>
       <c r="F87" s="13"/>
       <c r="G87" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>5</v>
@@ -3229,16 +3217,16 @@
       <c r="E88" s="8"/>
       <c r="F88" s="13"/>
       <c r="G88" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>5</v>
@@ -3246,16 +3234,16 @@
       <c r="E89" s="8"/>
       <c r="F89" s="13"/>
       <c r="G89" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>5</v>
@@ -3263,16 +3251,16 @@
       <c r="E90" s="8"/>
       <c r="F90" s="13"/>
       <c r="G90" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>5</v>
@@ -3280,16 +3268,16 @@
       <c r="E91" s="8"/>
       <c r="F91" s="13"/>
       <c r="G91" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>5</v>
@@ -3297,16 +3285,16 @@
       <c r="E92" s="8"/>
       <c r="F92" s="13"/>
       <c r="G92" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>5</v>
@@ -3314,16 +3302,16 @@
       <c r="E93" s="8"/>
       <c r="F93" s="13"/>
       <c r="G93" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>5</v>
@@ -3331,16 +3319,16 @@
       <c r="E94" s="8"/>
       <c r="F94" s="13"/>
       <c r="G94" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>5</v>
@@ -3348,16 +3336,16 @@
       <c r="E95" s="8"/>
       <c r="F95" s="13"/>
       <c r="G95" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>5</v>
@@ -3365,16 +3353,16 @@
       <c r="E96" s="8"/>
       <c r="F96" s="13"/>
       <c r="G96" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>5</v>
@@ -3382,16 +3370,16 @@
       <c r="E97" s="8"/>
       <c r="F97" s="13"/>
       <c r="G97" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>5</v>
@@ -3399,16 +3387,16 @@
       <c r="E98" s="8"/>
       <c r="F98" s="13"/>
       <c r="G98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>5</v>
@@ -3416,16 +3404,16 @@
       <c r="E99" s="8"/>
       <c r="F99" s="13"/>
       <c r="G99" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>5</v>
@@ -3433,16 +3421,16 @@
       <c r="E100" s="8"/>
       <c r="F100" s="13"/>
       <c r="G100" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>5</v>
@@ -3450,16 +3438,16 @@
       <c r="E101" s="8"/>
       <c r="F101" s="13"/>
       <c r="G101" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>5</v>
@@ -3467,48 +3455,48 @@
       <c r="E102" s="8"/>
       <c r="F102" s="13"/>
       <c r="G102" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="B103" s="8"/>
-      <c r="C103" s="8" t="s">
-        <v>186</v>
-      </c>
+      <c r="C103" s="8"/>
       <c r="D103" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="13"/>
       <c r="G103" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
+      <c r="C104" s="8" t="s">
+        <v>193</v>
+      </c>
       <c r="D104" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="13"/>
       <c r="G104" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>5</v>
@@ -3516,16 +3504,16 @@
       <c r="E105" s="8"/>
       <c r="F105" s="13"/>
       <c r="G105" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>5</v>
@@ -3533,16 +3521,16 @@
       <c r="E106" s="8"/>
       <c r="F106" s="13"/>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>5</v>
@@ -3550,16 +3538,16 @@
       <c r="E107" s="8"/>
       <c r="F107" s="13"/>
       <c r="G107" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>5</v>
@@ -3567,16 +3555,16 @@
       <c r="E108" s="8"/>
       <c r="F108" s="13"/>
       <c r="G108" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>5</v>
@@ -3584,16 +3572,16 @@
       <c r="E109" s="8"/>
       <c r="F109" s="13"/>
       <c r="G109" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>5</v>
@@ -3601,16 +3589,16 @@
       <c r="E110" s="8"/>
       <c r="F110" s="13"/>
       <c r="G110" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>5</v>
@@ -3618,50 +3606,50 @@
       <c r="E111" s="8"/>
       <c r="F111" s="13"/>
       <c r="G111" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B112" s="8"/>
+        <v>201</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="C112" s="8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="13"/>
-      <c r="G112" t="s">
-        <v>316</v>
+        <v>335</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>259</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B113" s="8"/>
       <c r="C113" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F113" s="13" t="s">
-        <v>321</v>
+      <c r="E113" s="8"/>
+      <c r="F113" s="13"/>
+      <c r="G113" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>5</v>
@@ -3669,56 +3657,56 @@
       <c r="E114" s="8"/>
       <c r="F114" s="13"/>
       <c r="G114" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B115" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>261</v>
+      </c>
       <c r="C115" s="8" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="13"/>
-      <c r="G115" t="s">
-        <v>316</v>
+        <v>335</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>263</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B116" s="14"/>
       <c r="C116" s="8" t="s">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B117" s="14"/>
+        <v>87</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="C117" s="8" t="s">
-        <v>296</v>
+        <v>88</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3729,79 +3717,79 @@
         <v>262</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>265</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B120" s="8"/>
       <c r="C120" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B121" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>259</v>
+      </c>
       <c r="C121" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B122" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="D122" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3809,104 +3797,104 @@
         <v>95</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C123" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
-        <v>97</v>
+      <c r="A124" s="19" t="s">
+        <v>287</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>98</v>
+        <v>287</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="C127" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C127" s="19" t="s">
-        <v>298</v>
-      </c>
       <c r="D127" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G127" s="22" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="8"/>
+      <c r="C128" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>299</v>
-      </c>
       <c r="D128" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F128" s="13" t="s">
-        <v>321</v>
+      <c r="E128" s="8"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="17" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3923,7 +3911,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="13"/>
       <c r="G129" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3940,14 +3928,16 @@
       <c r="E130" s="8"/>
       <c r="F130" s="13"/>
       <c r="G130" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B131" s="8"/>
+      <c r="B131" s="14" t="s">
+        <v>313</v>
+      </c>
       <c r="C131" s="8" t="s">
         <v>306</v>
       </c>
@@ -3957,7 +3947,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="13"/>
       <c r="G131" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3965,18 +3955,16 @@
         <v>307</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>308</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="8"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="17" t="s">
-        <v>316</v>
+        <v>335</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3984,50 +3972,47 @@
         <v>309</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>310</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>312</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="8"/>
       <c r="D134" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F134" s="13" t="s">
-        <v>321</v>
-      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="13"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B135" s="14"/>
+      <c r="A135" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E135" s="8"/>
-      <c r="F135" s="13"/>
+      <c r="F135" s="13" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -4036,12 +4021,12 @@
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -4050,12 +4035,12 @@
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -4064,12 +4049,12 @@
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -4078,12 +4063,12 @@
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -4092,119 +4077,105 @@
       </c>
       <c r="E140" s="8"/>
       <c r="F140" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="8"/>
-      <c r="F141" s="13" t="s">
-        <v>320</v>
-      </c>
+      <c r="A141" s="22"/>
+      <c r="E141" s="18"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="22"/>
       <c r="E142" s="18"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E143" s="18"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E141"/>
+  <autoFilter ref="A1:E140"/>
   <hyperlinks>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=182" r:id="rId1" ref="B4"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=187" r:id="rId2" ref="B5"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=183" r:id="rId3" ref="B7"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=184" r:id="rId4" ref="B8"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=185" r:id="rId5" ref="B9"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=186" r:id="rId6" ref="B11"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=186" r:id="rId7" ref="B10"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=189" r:id="rId8" ref="B15"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=196" r:id="rId9" ref="B27"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=197" r:id="rId10" ref="B28"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=200" r:id="rId11" ref="B30"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=201" r:id="rId12" ref="B31"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=198" r:id="rId13" ref="B23"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=188" r:id="rId14" ref="B46"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=235" r:id="rId15" ref="B49"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=234" r:id="rId16" ref="B48"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=194" r:id="rId17" ref="B40"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=191" r:id="rId18" ref="B41"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=192" r:id="rId19" ref="B42"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=195" r:id="rId20" ref="B43"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=190" r:id="rId21" ref="B44"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=193" r:id="rId22" ref="B45"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=214" r:id="rId23" ref="B57"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=215" r:id="rId24" ref="B58"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=216" r:id="rId25" ref="B59"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=217" r:id="rId26" ref="B60"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=212" r:id="rId27" ref="B61"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=213" r:id="rId28" ref="B62"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=210" r:id="rId29" ref="B63"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=211" r:id="rId30" ref="B64"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=211" r:id="rId31" ref="B65"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=222" r:id="rId32" ref="B72"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=223" r:id="rId33" ref="B73"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=224" r:id="rId34" ref="B74"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=219" r:id="rId35" ref="B75"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=220" r:id="rId36" ref="B76"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=218" r:id="rId37" ref="B77"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=221" r:id="rId38" ref="B78"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=227" r:id="rId39" ref="B113"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=209" r:id="rId40" ref="B124"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=207" r:id="rId41" ref="B122"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=203" r:id="rId42" ref="B118"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=202" r:id="rId43" ref="B116"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=204" r:id="rId44" ref="B119"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=205" r:id="rId45" ref="B120"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=208" r:id="rId46" ref="B123"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=232" r:id="rId47" ref="B20"/>
-    <hyperlink display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=233" r:id="rId48" ref="B21"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2076" r:id="rId49" ref="B68"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2077" r:id="rId50" ref="B69"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2014" r:id="rId51" ref="B70"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2011" r:id="rId52" ref="B71"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3683" r:id="rId53" ref="B12"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3676" r:id="rId54" ref="B126"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3669" r:id="rId55" ref="B125"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4812" r:id="rId56" ref="B127"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2721" r:id="rId57" ref="B128"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2250" r:id="rId58" ref="B134"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4686" r:id="rId59" ref="B133"/>
-    <hyperlink display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4820" r:id="rId60" ref="B132"/>
+    <hyperlink ref="B4" r:id="rId1" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=182"/>
+    <hyperlink ref="B5" r:id="rId2" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=187"/>
+    <hyperlink ref="B6" r:id="rId3" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=183"/>
+    <hyperlink ref="B7" r:id="rId4" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=184"/>
+    <hyperlink ref="B8" r:id="rId5" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=185"/>
+    <hyperlink ref="B10" r:id="rId6" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=186"/>
+    <hyperlink ref="B9" r:id="rId7" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=186"/>
+    <hyperlink ref="B14" r:id="rId8" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=189"/>
+    <hyperlink ref="B26" r:id="rId9" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=196"/>
+    <hyperlink ref="B27" r:id="rId10" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=197"/>
+    <hyperlink ref="B29" r:id="rId11" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=200"/>
+    <hyperlink ref="B30" r:id="rId12" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=201"/>
+    <hyperlink ref="B22" r:id="rId13" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=198"/>
+    <hyperlink ref="B45" r:id="rId14" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=188"/>
+    <hyperlink ref="B48" r:id="rId15" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=235"/>
+    <hyperlink ref="B47" r:id="rId16" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=234"/>
+    <hyperlink ref="B39" r:id="rId17" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=194"/>
+    <hyperlink ref="B40" r:id="rId18" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=191"/>
+    <hyperlink ref="B41" r:id="rId19" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=192"/>
+    <hyperlink ref="B42" r:id="rId20" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=195"/>
+    <hyperlink ref="B43" r:id="rId21" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=190"/>
+    <hyperlink ref="B44" r:id="rId22" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=193"/>
+    <hyperlink ref="B56" r:id="rId23" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=214"/>
+    <hyperlink ref="B57" r:id="rId24" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=215"/>
+    <hyperlink ref="B58" r:id="rId25" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=216"/>
+    <hyperlink ref="B59" r:id="rId26" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=217"/>
+    <hyperlink ref="B60" r:id="rId27" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=212"/>
+    <hyperlink ref="B61" r:id="rId28" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=213"/>
+    <hyperlink ref="B62" r:id="rId29" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=210"/>
+    <hyperlink ref="B63" r:id="rId30" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=211"/>
+    <hyperlink ref="B64" r:id="rId31" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=211"/>
+    <hyperlink ref="B71" r:id="rId32" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=222"/>
+    <hyperlink ref="B72" r:id="rId33" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=223"/>
+    <hyperlink ref="B73" r:id="rId34" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=224"/>
+    <hyperlink ref="B74" r:id="rId35" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=219"/>
+    <hyperlink ref="B75" r:id="rId36" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=220"/>
+    <hyperlink ref="B76" r:id="rId37" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=218"/>
+    <hyperlink ref="B77" r:id="rId38" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=221"/>
+    <hyperlink ref="B112" r:id="rId39" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=227"/>
+    <hyperlink ref="B123" r:id="rId40" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=209"/>
+    <hyperlink ref="B121" r:id="rId41" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=207"/>
+    <hyperlink ref="B117" r:id="rId42" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=203"/>
+    <hyperlink ref="B115" r:id="rId43" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=202"/>
+    <hyperlink ref="B118" r:id="rId44" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=204"/>
+    <hyperlink ref="B119" r:id="rId45" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=205"/>
+    <hyperlink ref="B122" r:id="rId46" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=208"/>
+    <hyperlink ref="B19" r:id="rId47" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=232"/>
+    <hyperlink ref="B20" r:id="rId48" display="td://maximo.bau.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=233"/>
+    <hyperlink ref="B67" r:id="rId49" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2076"/>
+    <hyperlink ref="B68" r:id="rId50" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2077"/>
+    <hyperlink ref="B69" r:id="rId51" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2014"/>
+    <hyperlink ref="B70" r:id="rId52" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2011"/>
+    <hyperlink ref="B11" r:id="rId53" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3683"/>
+    <hyperlink ref="B125" r:id="rId54" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3676"/>
+    <hyperlink ref="B124" r:id="rId55" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=3669"/>
+    <hyperlink ref="B126" r:id="rId56" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4812"/>
+    <hyperlink ref="B127" r:id="rId57" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2721"/>
+    <hyperlink ref="B133" r:id="rId58" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=2250"/>
+    <hyperlink ref="B132" r:id="rId59" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4686"/>
+    <hyperlink ref="B131" r:id="rId60" display="td://sirius.projects.hpqc.tranzrail.co.nz/qcbin/TestPlanModule-00000000395028973?EntityType=ITest&amp;EntityID=4820"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId61"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -1026,13 +1026,13 @@
     <t>*Note: Closed and FieldComp not in the list of status change when WO is in Create status - this is the correct functionality but it's not the case in TST environment and it is in UAT</t>
   </si>
   <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132:D133"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,10 +1594,10 @@
       <c r="B3" s="14"/>
       <c r="C3" s="8"/>
       <c r="D3" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="12"/>
@@ -1616,7 +1616,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>336</v>
@@ -1640,10 +1640,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>335</v>
-      </c>
-      <c r="E5" t="s">
-        <v>336</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>319</v>
@@ -1664,10 +1664,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>335</v>
-      </c>
-      <c r="E6" t="s">
-        <v>336</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>319</v>
@@ -1688,10 +1688,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>335</v>
-      </c>
-      <c r="E7" t="s">
-        <v>336</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>319</v>
@@ -1712,10 +1712,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
         <v>335</v>
-      </c>
-      <c r="E8" t="s">
-        <v>336</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>319</v>
@@ -1757,10 +1757,10 @@
         <v>211</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
         <v>335</v>
-      </c>
-      <c r="E10" t="s">
-        <v>336</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>319</v>
@@ -1837,7 +1837,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>319</v>
@@ -1916,7 +1916,7 @@
         <v>207</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>319</v>
@@ -1937,7 +1937,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>319</v>
@@ -1958,7 +1958,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>319</v>
@@ -1977,7 +1977,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>319</v>
@@ -1998,7 +1998,7 @@
         <v>34</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>319</v>
@@ -2039,7 +2039,7 @@
         <v>38</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>319</v>
@@ -2082,7 +2082,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>319</v>
@@ -2103,7 +2103,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>319</v>
@@ -2146,7 +2146,7 @@
         <v>48</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>319</v>
@@ -2169,7 +2169,7 @@
         <v>269</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>319</v>
@@ -2190,7 +2190,7 @@
         <v>268</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>319</v>
@@ -2351,7 +2351,7 @@
         <v>64</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>319</v>
@@ -2371,7 +2371,7 @@
         <v>66</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>319</v>
@@ -2392,7 +2392,7 @@
         <v>68</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>319</v>
@@ -2412,7 +2412,7 @@
         <v>70</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>319</v>
@@ -2432,7 +2432,7 @@
         <v>72</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>319</v>
@@ -2454,7 +2454,7 @@
         <v>74</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>319</v>
@@ -2471,7 +2471,7 @@
         <v>75</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>319</v>
@@ -2503,7 +2503,7 @@
         <v>76</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>319</v>
@@ -2520,7 +2520,7 @@
         <v>77</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>319</v>
@@ -2539,7 +2539,7 @@
         <v>78</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>319</v>
@@ -2557,7 +2557,7 @@
         <v>279</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>319</v>
@@ -2572,7 +2572,7 @@
         <v>278</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>319</v>
@@ -2587,7 +2587,7 @@
         <v>280</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>319</v>
@@ -2602,7 +2602,7 @@
         <v>284</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>319</v>
@@ -2617,7 +2617,7 @@
         <v>285</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>319</v>
@@ -2632,7 +2632,7 @@
         <v>286</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>319</v>
@@ -2649,7 +2649,7 @@
         <v>97</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>319</v>
@@ -2667,7 +2667,7 @@
         <v>98</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>319</v>
@@ -2684,7 +2684,7 @@
         <v>99</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>319</v>
@@ -2701,7 +2701,7 @@
         <v>100</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>319</v>
@@ -2718,7 +2718,7 @@
         <v>101</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>319</v>
@@ -2738,7 +2738,7 @@
         <v>102</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>319</v>
@@ -2756,7 +2756,7 @@
         <v>103</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>319</v>
@@ -2774,7 +2774,7 @@
         <v>216</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>319</v>
@@ -2792,7 +2792,7 @@
         <v>217</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>319</v>
@@ -2842,7 +2842,7 @@
         <v>117</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>319</v>
@@ -2859,7 +2859,7 @@
         <v>118</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>319</v>
@@ -2876,7 +2876,7 @@
         <v>119</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F69" s="13" t="s">
         <v>319</v>
@@ -2896,7 +2896,7 @@
         <v>120</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>319</v>
@@ -2913,7 +2913,7 @@
         <v>128</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>319</v>
@@ -3620,7 +3620,7 @@
         <v>208</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F112" s="13" t="s">
         <v>319</v>
@@ -3671,7 +3671,7 @@
         <v>80</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F115" s="13" t="s">
         <v>319</v>
@@ -3686,7 +3686,7 @@
         <v>294</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F116" s="13" t="s">
         <v>319</v>
@@ -3703,7 +3703,7 @@
         <v>88</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>319</v>
@@ -3720,7 +3720,7 @@
         <v>81</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>319</v>
@@ -3737,7 +3737,7 @@
         <v>82</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F119" s="13" t="s">
         <v>319</v>
@@ -3752,7 +3752,7 @@
         <v>83</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F120" s="13" t="s">
         <v>319</v>
@@ -3769,7 +3769,7 @@
         <v>84</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>319</v>
@@ -3786,7 +3786,7 @@
         <v>94</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>319</v>
@@ -3803,7 +3803,7 @@
         <v>96</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F123" s="13" t="s">
         <v>319</v>
@@ -3820,7 +3820,7 @@
         <v>287</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F124" s="13" t="s">
         <v>319</v>
@@ -3837,7 +3837,7 @@
         <v>290</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F125" s="13" t="s">
         <v>319</v>
@@ -3854,7 +3854,7 @@
         <v>296</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F126" s="13" t="s">
         <v>319</v>
@@ -3874,7 +3874,7 @@
         <v>297</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F127" s="13" t="s">
         <v>319</v>
@@ -3961,7 +3961,7 @@
         <v>308</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F132" s="13" t="s">
         <v>319</v>
@@ -3978,7 +3978,7 @@
         <v>310</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="F133" s="13" t="s">
         <v>319</v>

--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="336">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1024,12 +1024,6 @@
   </si>
   <si>
     <t>*Note: Closed and FieldComp not in the list of status change when WO is in Create status - this is the correct functionality but it's not the case in TST environment and it is in UAT</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1531,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,9 +1590,6 @@
       <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>336</v>
-      </c>
       <c r="F3" s="13"/>
       <c r="G3" s="12"/>
       <c r="H3" s="5"/>
@@ -1618,9 +1609,6 @@
       <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>336</v>
-      </c>
       <c r="F4" s="13" t="s">
         <v>319</v>
       </c>
@@ -1642,9 +1630,6 @@
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>335</v>
-      </c>
       <c r="F5" s="13" t="s">
         <v>319</v>
       </c>
@@ -1666,9 +1651,6 @@
       <c r="D6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>335</v>
-      </c>
       <c r="F6" s="13" t="s">
         <v>319</v>
       </c>
@@ -1690,9 +1672,6 @@
       <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>335</v>
-      </c>
       <c r="F7" s="13" t="s">
         <v>319</v>
       </c>
@@ -1714,9 +1693,6 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
-        <v>335</v>
-      </c>
       <c r="F8" s="13" t="s">
         <v>319</v>
       </c>
@@ -1758,9 +1734,6 @@
       </c>
       <c r="D10" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>335</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>319</v>
@@ -2557,7 +2530,7 @@
         <v>279</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>319</v>
@@ -2572,7 +2545,7 @@
         <v>278</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>319</v>
@@ -2587,7 +2560,7 @@
         <v>280</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>319</v>
@@ -2602,7 +2575,7 @@
         <v>284</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>319</v>
@@ -2617,7 +2590,7 @@
         <v>285</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>319</v>
@@ -2632,7 +2605,7 @@
         <v>286</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>319</v>
